--- a/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
+++ b/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cable1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Girder" sheetId="5" r:id="rId5"/>
     <sheet name="Tower1" sheetId="6" r:id="rId6"/>
     <sheet name="Tower2" sheetId="7" r:id="rId7"/>
+    <sheet name="mySketch" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,9 +367,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1062,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1085,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
         <v>7.73</v>
@@ -1099,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D3">
         <v>7.9675000000000002</v>
@@ -1113,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D4">
         <v>8.18</v>
@@ -1127,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
         <v>8.5299999999999994</v>
@@ -1141,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
         <v>8.6675000000000004</v>
@@ -1155,7 +1161,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
         <v>8.7799999999999994</v>
@@ -1169,7 +1175,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
         <v>8.8674999999999997</v>
@@ -1183,7 +1189,7 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
         <v>8.93</v>
@@ -1197,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
         <v>8.9674999999999994</v>
@@ -1211,7 +1217,7 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D11">
         <v>8.98</v>
@@ -1225,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D12">
         <v>8.9674999999999994</v>
@@ -1239,7 +1245,7 @@
         <v>70</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D13">
         <v>8.93</v>
@@ -1253,7 +1259,7 @@
         <v>75</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D14">
         <v>8.8674999999999997</v>
@@ -1267,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D15">
         <v>8.7799999999999994</v>
@@ -1281,7 +1287,7 @@
         <v>85</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D16">
         <v>8.6675000000000004</v>
@@ -1295,7 +1301,7 @@
         <v>90</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D17">
         <v>8.5299999999999994</v>
@@ -1309,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D18">
         <v>8.18</v>
@@ -1323,7 +1329,7 @@
         <v>105</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D19">
         <v>7.9675000000000002</v>
@@ -1337,7 +1343,7 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D20">
         <v>7.73</v>
@@ -1646,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2212,4 +2218,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.3550000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.4541869999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.4891129999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.3674999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.7675000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.0675000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.2675000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.3674999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.3674999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.2675000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.0675000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.7675000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.3674999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>121.454187</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.4891129999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7.3550000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
+++ b/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cable1" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1650,15 +1650,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>7.3550000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>7.4891129999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1724,8 +1727,27 @@
       <c r="D5" s="1">
         <v>8.1300000000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"(" &amp;F5 &amp;","&amp;G5 &amp; ",-3.75" &amp;"),"</f>
+        <v>(10,8.13,-3.75),</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>7.73</v>
+      </c>
+      <c r="M5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1738,8 +1760,27 @@
       <c r="D6" s="1">
         <v>8.3674999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.3674999999999997</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I24" si="0">"(" &amp;F6 &amp;","&amp;G6 &amp; ",-3.75" &amp;"),"</f>
+        <v>(15,8.3675,-3.75),</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>7.9675000000000002</v>
+      </c>
+      <c r="M6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1752,8 +1793,27 @@
       <c r="D7" s="1">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,8.58,-3.75),</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>8.18</v>
+      </c>
+      <c r="M7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1766,8 +1826,27 @@
       <c r="D8" s="1">
         <v>8.7675000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.7675000000000001</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,8.7675,-3.75),</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="M8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1780,8 +1859,27 @@
       <c r="D9" s="1">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,8.93,-3.75),</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>8.6675000000000004</v>
+      </c>
+      <c r="M9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1794,8 +1892,27 @@
       <c r="D10" s="1">
         <v>9.0675000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.0675000000000008</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,9.0675,-3.75),</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="M10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1808,8 +1925,27 @@
       <c r="D11" s="1">
         <v>9.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,9.18,-3.75),</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>8.8674999999999997</v>
+      </c>
+      <c r="M11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1822,8 +1958,27 @@
       <c r="D12" s="1">
         <v>9.2675000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.2675000000000001</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,9.2675,-3.75),</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>8.93</v>
+      </c>
+      <c r="M12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1836,8 +1991,27 @@
       <c r="D13" s="1">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,9.33,-3.75),</v>
+      </c>
+      <c r="K13">
+        <v>55</v>
+      </c>
+      <c r="L13">
+        <v>8.9674999999999994</v>
+      </c>
+      <c r="M13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1850,8 +2024,27 @@
       <c r="D14" s="1">
         <v>9.3674999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>55</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.3674999999999997</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,9.3675,-3.75),</v>
+      </c>
+      <c r="K14">
+        <v>60</v>
+      </c>
+      <c r="L14">
+        <v>8.98</v>
+      </c>
+      <c r="M14">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1864,8 +2057,27 @@
       <c r="D15" s="1">
         <v>9.3800000000000008</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>(60,9.38,-3.75),</v>
+      </c>
+      <c r="K15">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>8.9674999999999994</v>
+      </c>
+      <c r="M15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1878,8 +2090,27 @@
       <c r="D16" s="1">
         <v>9.3674999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9.3674999999999997</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>(65,9.3675,-3.75),</v>
+      </c>
+      <c r="K16">
+        <v>70</v>
+      </c>
+      <c r="L16">
+        <v>8.93</v>
+      </c>
+      <c r="M16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1892,8 +2123,27 @@
       <c r="D17" s="1">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>(70,9.33,-3.75),</v>
+      </c>
+      <c r="K17">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>8.8674999999999997</v>
+      </c>
+      <c r="M17">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1906,8 +2156,27 @@
       <c r="D18" s="1">
         <v>9.2675000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.2675000000000001</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>(75,9.2675,-3.75),</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="M18">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1920,8 +2189,27 @@
       <c r="D19" s="1">
         <v>9.18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>(80,9.18,-3.75),</v>
+      </c>
+      <c r="K19">
+        <v>85</v>
+      </c>
+      <c r="L19">
+        <v>8.6675000000000004</v>
+      </c>
+      <c r="M19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1934,8 +2222,27 @@
       <c r="D20" s="1">
         <v>9.0675000000000008</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.0675000000000008</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>(85,9.0675,-3.75),</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1948,8 +2255,27 @@
       <c r="D21" s="1">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>(90,8.93,-3.75),</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>8.18</v>
+      </c>
+      <c r="M21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1962,8 +2288,27 @@
       <c r="D22" s="1">
         <v>8.7675000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>95</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.7675000000000001</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>(95,8.7675,-3.75),</v>
+      </c>
+      <c r="K22">
+        <v>105</v>
+      </c>
+      <c r="L22">
+        <v>7.9675000000000002</v>
+      </c>
+      <c r="M22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1976,8 +2321,27 @@
       <c r="D23" s="1">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>(100,8.58,-3.75),</v>
+      </c>
+      <c r="K23">
+        <v>110</v>
+      </c>
+      <c r="L23">
+        <v>7.73</v>
+      </c>
+      <c r="M23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1990,8 +2354,18 @@
       <c r="D24" s="1">
         <v>8.3674999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8.3674999999999997</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>(105,8.3675,-3.75),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2004,8 +2378,18 @@
       <c r="D25" s="1">
         <v>8.1300000000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ref="I6:I25" si="1">"(" &amp;F25 &amp;","&amp;G25 &amp; ",-3.75" &amp;")"</f>
+        <v>(110,8.13,-3.75)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2019,7 +2403,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2033,7 +2417,7 @@
         <v>7.4891129999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>

--- a/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
+++ b/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/MainCoordinates.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cable1" sheetId="1" r:id="rId1"/>
     <sheet name="cable2" sheetId="2" r:id="rId2"/>
     <sheet name="suspender1" sheetId="3" r:id="rId3"/>
     <sheet name="GirderTowerBeamSupport" sheetId="18" r:id="rId4"/>
-    <sheet name="GirderTowerTraverseBeam" sheetId="17" r:id="rId5"/>
+    <sheet name="GirderTowerBeam" sheetId="17" r:id="rId5"/>
     <sheet name="GirderWeightsSupport" sheetId="16" r:id="rId6"/>
     <sheet name="rGirderCableSpring" sheetId="15" r:id="rId7"/>
     <sheet name="suspender2" sheetId="4" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   <si>
     <t>(95,8.7675,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25,8.7675,-2.75),</t>
+  </si>
+  <si>
+    <t>(95,8.7675,-2.75),</t>
+  </si>
+  <si>
+    <t>(25,8.7675,2.75),</t>
+  </si>
+  <si>
+    <t>(95,8.7675,2.75)</t>
   </si>
 </sst>
 </file>
@@ -4532,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4570,18 +4582,18 @@
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>6.5</v>
+        <v>-2.75</v>
       </c>
       <c r="D2" s="1">
         <v>8.1270000000000007</v>
       </c>
       <c r="I2" t="str">
-        <f>"("&amp;B2&amp;","&amp;D2&amp;","&amp;0&amp;")"</f>
-        <v>(25,8.127,0)</v>
+        <f>"("&amp;B2&amp;","&amp;D2&amp;","&amp;C2&amp;")"</f>
+        <v>(25,8.127,-2.75)</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2" si="0">I2&amp;","</f>
-        <v>(25,8.127,0),</v>
+        <v>(25,8.127,-2.75),</v>
       </c>
       <c r="K2" t="s">
         <v>62</v>
@@ -4595,18 +4607,18 @@
         <v>95</v>
       </c>
       <c r="C3" s="1">
-        <v>6.5</v>
+        <v>-2.75</v>
       </c>
       <c r="D3" s="1">
         <v>8.1270000000000007</v>
       </c>
       <c r="I3" t="str">
-        <f>"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
-        <v>(95,8.127,0)</v>
+        <f t="shared" ref="I3:I5" si="1">"("&amp;B3&amp;","&amp;D3&amp;","&amp;C3&amp;")"</f>
+        <v>(95,8.127,-2.75)</v>
       </c>
       <c r="J3" t="str">
         <f>I3&amp;","</f>
-        <v>(95,8.127,0),</v>
+        <v>(95,8.127,-2.75),</v>
       </c>
       <c r="K3" t="s">
         <v>62</v>
@@ -4620,18 +4632,18 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="D4" s="1">
         <v>8.1270000000000007</v>
       </c>
       <c r="I4" t="str">
-        <f>"("&amp;B4&amp;","&amp;D4&amp;","&amp;0&amp;")"</f>
-        <v>(25,8.127,0)</v>
+        <f t="shared" si="1"/>
+        <v>(25,8.127,2.75)</v>
       </c>
       <c r="J4" t="str">
         <f>I4&amp;","</f>
-        <v>(25,8.127,0),</v>
+        <v>(25,8.127,2.75),</v>
       </c>
       <c r="K4" t="s">
         <v>63</v>
@@ -4645,18 +4657,18 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="D5">
         <v>8.1270000000000007</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5" si="1">"("&amp;B5&amp;","&amp;D5&amp;","&amp;0&amp;")"</f>
-        <v>(95,8.127,0)</v>
+        <f t="shared" si="1"/>
+        <v>(95,8.127,2.75)</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5" si="2">I5&amp;","</f>
-        <v>(95,8.127,0),</v>
+        <f>I5</f>
+        <v>(95,8.127,2.75)</v>
       </c>
       <c r="K5" t="s">
         <v>64</v>
@@ -4782,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4820,21 +4832,21 @@
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>6.5</v>
+        <v>-2.75</v>
       </c>
       <c r="D2" s="1">
         <v>8.7675000000000001</v>
       </c>
       <c r="I2" t="str">
-        <f>"("&amp;B2&amp;","&amp;D2&amp;","&amp;0&amp;")"</f>
-        <v>(25,8.7675,0)</v>
+        <f>"("&amp;B2&amp;","&amp;D2&amp;","&amp;C2&amp;")"</f>
+        <v>(25,8.7675,-2.75)</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2" si="0">I2&amp;","</f>
-        <v>(25,8.7675,0),</v>
+        <v>(25,8.7675,-2.75),</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4845,21 +4857,21 @@
         <v>95</v>
       </c>
       <c r="C3" s="1">
-        <v>6.5</v>
+        <v>-2.75</v>
       </c>
       <c r="D3" s="1">
         <v>8.7675000000000001</v>
       </c>
       <c r="I3" t="str">
-        <f>"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
-        <v>(95,8.7675,0)</v>
+        <f t="shared" ref="I3:I5" si="1">"("&amp;B3&amp;","&amp;D3&amp;","&amp;C3&amp;")"</f>
+        <v>(95,8.7675,-2.75)</v>
       </c>
       <c r="J3" t="str">
         <f>I3&amp;","</f>
-        <v>(95,8.7675,0),</v>
+        <v>(95,8.7675,-2.75),</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4870,21 +4882,21 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="D4" s="1">
         <v>8.7675000000000001</v>
       </c>
       <c r="I4" t="str">
-        <f>"("&amp;B4&amp;","&amp;D4&amp;","&amp;0&amp;")"</f>
-        <v>(25,8.7675,0)</v>
+        <f t="shared" si="1"/>
+        <v>(25,8.7675,2.75)</v>
       </c>
       <c r="J4" t="str">
         <f>I4&amp;","</f>
-        <v>(25,8.7675,0),</v>
+        <v>(25,8.7675,2.75),</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4895,35 +4907,35 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="D5">
         <v>8.7675000000000001</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5" si="1">"("&amp;B5&amp;","&amp;D5&amp;","&amp;0&amp;")"</f>
-        <v>(95,8.7675,0)</v>
+        <f t="shared" si="1"/>
+        <v>(95,8.7675,2.75)</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5" si="2">I5&amp;","</f>
-        <v>(95,8.7675,0),</v>
+        <f>I5</f>
+        <v>(95,8.7675,2.75)</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5101,11 +5113,11 @@
         <v>7.58</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I5" si="0">"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
+        <f t="shared" ref="I3" si="0">"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
         <v>(120,7.58,0)</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:K3" si="1">I3&amp;","</f>
+        <f t="shared" ref="J3" si="1">I3&amp;","</f>
         <v>(120,7.58,0),</v>
       </c>
       <c r="K3" t="s">
@@ -5305,7 +5317,7 @@
         <v>7.4891129999999997</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I5" si="0">"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
+        <f t="shared" ref="I3" si="0">"("&amp;B3&amp;","&amp;D3&amp;","&amp;0&amp;")"</f>
         <v>(121.454187,7.489113,0)</v>
       </c>
       <c r="J3" t="str">
